--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2018/47_Kayseri_2018.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2018/47_Kayseri_2018.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\indirilen_exceller_2018\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2018\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9EEB35A2-9DC9-41D2-9357-28F948965930}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8BD4ADC4-58F9-4DC4-A438-3A8EE1E55E49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="667" xr2:uid="{56BF1991-D2E6-4729-AD2A-C024E9EC3E28}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="667" xr2:uid="{768F85FB-678F-4D5A-ABAB-3DD79B8271FA}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="91" r:id="rId1"/>
@@ -937,13 +937,13 @@
   <cellStyles count="9">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{734A0DB1-22DB-458D-8D88-C363BC23AE35}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{7D27DA5B-63A7-4ECC-A084-D0333CE55F24}"/>
-    <cellStyle name="Normal 3" xfId="4" xr:uid="{24DCC40C-932D-40F0-B46F-28E6B0ABE6BA}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{22926095-0088-440F-8C1D-57CD6C481FCD}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{679A4F23-5FC2-4531-B089-E7459AB03DA2}"/>
-    <cellStyle name="Not 2" xfId="7" xr:uid="{11524558-3DFA-4C85-BBA2-738F3557EB55}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{AB442074-A34A-40ED-B1D8-D2A319D0748E}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{12F9586D-259E-4D25-B40C-E373B047A6D7}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{3B268782-713E-4A62-8FA3-C376999EE9A3}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{E16A1955-C9F8-4B89-A2E8-7F69F7977397}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{C89EE64C-F4AC-4D87-96A0-5EC16EC98E75}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{BDA0D513-DD51-4045-BAD9-246815AE3442}"/>
+    <cellStyle name="Not 2" xfId="7" xr:uid="{DF225F24-3A07-44D3-A22D-E9A08672674E}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{7141795D-9756-41FC-90C1-BD1671D68355}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1313,7 +1313,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1950FF7-7400-4611-9BAA-642EECD15D79}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D562967-AACB-4F5C-A510-198EE2A16BEF}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -2594,18 +2594,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{EED3C205-7889-4EC2-A274-407157EE755B}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{B107B731-6A80-49D1-AF94-13CA0D3BC5C3}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{39D80BB3-8254-4EBF-88C4-301B34482888}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{3FD8D45F-9782-49FA-A55D-33805A7125B2}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{D7306874-B0B2-4DAB-BA90-8756430847CA}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{E9808B32-3E33-4957-92B4-05037ADC3188}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{E28362F5-54DC-4830-9D46-A3F3CEB95271}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{7BB1897B-1FCE-432A-8578-80EB4FB0080E}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{620CCE8D-13D9-4D6D-B1A9-67848EE8CC56}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{4424C3B6-8765-40B8-810E-4246152EC8EF}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{CA62D485-3603-4257-8FE0-7B7AFF75BB9E}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{1DB90FD9-54A7-406B-A15B-E9C2BA11AE96}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{864AB23A-3364-4327-917F-06014FC2B27F}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{71849A08-D203-41B6-A704-9A79C5CF55F6}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{3D676DD3-3C84-41F5-95DB-55A75A9D3303}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{0A259E36-E436-48EB-898E-6818DBF65F0E}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{F33B2D88-CA1B-4DF9-BEC3-396AAE85D5D3}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{E805C807-3022-428D-BC08-9C918C5A2F03}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{95744839-6661-4886-839C-08EED31425A9}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{033F7046-2DFB-431A-A88D-AB12CA62C3E0}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{13EB8835-EC58-4D85-B440-AF733F259CFA}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{53E06248-ECF9-44E7-8E01-C7E8487C83D0}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{135B15DE-996E-4CF1-9639-6C294C238C0A}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{BA362D79-E822-43EB-970C-CAC5D8D676D9}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2618,7 +2618,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{460C73B8-1BF8-41AB-9185-88A0E78D81E2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F67CE3F-0194-4568-9125-DBD3956CE67F}">
   <sheetPr codeName="Sayfa3"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -3876,18 +3876,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{EFC77BB4-F5BB-4065-B037-45BBB17066D0}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{AB036D50-3164-49BF-B4EC-B797571E1C45}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{985FC7C3-65F2-450A-BA14-1D081D480F92}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{395A2CDB-DE45-479E-A240-4CAD7FCD67C8}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{BF464E1A-387F-4CE8-9249-6C30D1272E4A}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{74BD4F3F-7B2F-4B10-AD79-3F53D7C9E8CA}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{92BE58BE-8B91-4AB2-816D-357E08689573}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{E3C5B53E-6F99-4994-973D-ACFDC9135C4F}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{B7CEB5E6-BA6C-4B66-8297-52133641824C}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{1765FCAD-92B9-4C03-A2A0-8C3D5B24F6CE}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{4B85B466-34A7-4C15-A700-09E74BF938CD}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{4DA3A27C-7936-4E25-8BE0-2A6B39F7C04C}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{F3A1F550-0581-4310-9CA6-569A87A6DF67}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{85114298-99E0-4F36-AB50-9E6FE1D4C84A}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{1C95C512-8E13-405D-BF90-607083D788A2}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{7AA42767-5171-4EF6-8210-2D5B4CC53638}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{D42A17E4-A2FB-4A49-B699-6EC5ABC9DCCE}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{ACCA8852-FDF6-4E2A-BD77-A71DD5EA6E2F}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{498916E0-4CE3-4B1F-A657-9032918BFBAC}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{4A389900-96B8-46F0-AA50-3BA26E2D1EE4}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{884B9612-B8F0-4D01-B0D4-BB458BDBEBB4}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{CDB732C8-5FC6-4263-9EB1-F2486EB4F165}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{7670B99C-247E-4186-8570-C15C45CA2483}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{5122D719-3DCD-42C5-9929-87FC01DF63EB}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3900,7 +3900,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D15BDAE-F1DC-4AEB-92C1-AB3DF2089E95}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{181B500B-8765-4E50-82B7-F33246E38432}">
   <sheetPr codeName="Sayfa4"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -5158,18 +5158,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{7557247F-98DE-4451-9E0C-8DA07F7D646D}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{3B6E8FD4-9E45-4085-BCE8-4C08206D98B1}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{BB89F551-4333-4FFF-B6FF-0F1264F99D1E}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{2BBE0AFF-FCFD-4A4C-93F6-68D564EC7307}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{39DBDD6A-5648-452B-9A95-1CDAEF920BE3}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{8304E108-9C74-4528-9155-76B9F210242E}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{F70993FB-7FFB-4926-8A3F-3E857ED566C8}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{DFE72338-74D0-46FD-8D7D-86A1517C5F1C}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{22747A4F-AC01-4B3C-AA2E-007D15AB914F}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{668D160F-88E1-4933-8D06-846CCE660A05}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{B7242025-5E68-4B4F-BE46-B3A41832299F}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{0E774952-83E4-47B9-A462-F08F6326C06B}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{EAC226B8-6938-48B7-86DA-9BF3D0CA699F}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{F975DC1D-DB50-4796-929F-98A7F6477948}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{844BAC67-CF35-43C6-BFFE-67699E403B43}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{C6864D6D-EA78-47A8-853C-042941034726}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{5E2387E3-B790-476F-BE37-4B786CABC9E7}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{E428289C-0A9C-455C-AB14-4AD66CE79F03}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{D1B58C5C-4DCA-4C0D-9A0F-022C61CF7914}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{9C9C76AF-C545-4894-B4D5-0572E683D783}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{0D874C66-A38F-4095-A4F9-4107EA7AA443}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{FE61ECD3-A9D8-49F7-B298-9DD4EEB787CD}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{231D88EF-B282-475F-97DA-3730E8495C19}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{6C9BC1FD-2497-4C4A-B058-BB70D483489A}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -5182,7 +5182,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5945DE6D-703C-48BD-8274-6840AD7498DC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6425C87C-3604-4976-9870-ED74E24FB7EE}">
   <sheetPr codeName="Sayfa12"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -6436,18 +6436,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{E0FD3D08-B0A3-4A06-A65D-16ED5A969C11}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{C09905BF-B4F8-4E6A-889B-247ED5BAF63F}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{93281D32-0FC0-429E-A952-BE02C8D14E10}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{CD78878A-ECB3-4B54-83A2-D3E5A7B388A9}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{F7492806-8AF4-46D4-ABAE-A5D77819D184}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{C43F85B0-3177-4FB1-9C01-EA4F3BF7A160}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{4DA1CF7C-8052-4BED-BE3B-CD3CBA74EDA9}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{F55BD917-44D6-4CFC-A122-CB1EDE370B02}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{30C66442-9C52-494A-8730-C492E1AA0E11}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{B4F2AE4B-17E1-4315-81D4-7C9432B77CA2}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{A0F590CE-7815-4835-AF35-60FF141B6528}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{004A467E-2425-48E3-8648-40F34ACB0E93}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{CE92B6EB-5FAF-418E-B1DD-5E34090498BB}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{80FFC3D1-BD93-4B1E-B61A-0597C33F1D84}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{92D75D90-943A-4720-B4EB-6E1593B7B74E}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{086F326E-26A6-45DF-ABC2-4E463CE16437}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{D52A205A-E9B0-4016-B4A1-D77C02FCB5F0}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{031D6340-9E06-487C-9B2B-FBCFC1C22B5F}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{07FBA54F-C3A4-4600-9D52-10F07BE250E7}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{1BC897F0-BFFE-4B4F-AA3A-AA8C5B0E4C62}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{9FCE85B4-9802-4E7A-9CC9-821D695D06FD}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{3F51A218-F616-4833-AAFC-A2C461C203A8}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{6348E1AE-3D13-414D-9EBC-21656707EF4B}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{DC3783DD-08CD-496B-ACF0-76D6D1D56A95}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6460,7 +6460,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56C6ECBF-3D7B-462A-8982-5C35F1714BD6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1E35BB9-EBB9-4FBF-80F4-CC3B68AAF0E7}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7741,18 +7741,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{BE0535F9-C003-4EA8-AFE9-4B96354C65A1}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{23CAEF1B-2A9D-4098-BF36-8074CFB6D1E0}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{00BA2A0A-6434-4E52-ABC9-300C714753D7}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{1B6AD810-4024-423A-9A80-C253F0424038}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{16154FB1-8228-45D4-B930-E65D8B4452CB}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{A58493B6-177B-49A8-8D91-E43CC13A811E}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{A96545F9-C52B-4F7E-9B4C-8F536CB2C0F8}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{1B1B02A0-83AA-48AA-8209-7DAC056B37A5}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{F03009A0-8D8C-479E-8BCD-BA6DEB0BB9B0}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{9D39447F-EB6C-4C8D-84D9-161172A61F9E}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{1707AF75-7681-46F0-89CE-7AD056ECBFDC}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{5A8E6BFE-5FDC-4180-931A-B4A7E93EC43C}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{8558A447-CAF7-4DBF-A1CC-C67F01839DB9}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{80B4A95D-14F0-4BED-B21C-788B656E24E5}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{F53C8025-37FE-49DC-9743-9C2279079238}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{E9FB09EF-8E66-4F8E-8D68-7D1B0F28F051}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{A2A1B822-9400-4B61-B831-4E065125ED38}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{B9C0D104-B98D-4246-9EC2-2D6E34EE6833}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{4524BBF6-70FE-494F-B8AC-E7180A2188F3}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{0644D62D-4070-4904-85DC-73B76F4B6673}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{A0050567-ACC1-4355-B07D-0E8CC3CD8B47}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{507E1629-50DE-45E5-9916-20293D8E5900}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{0C613659-5382-45BB-AF3E-8CBAE0873E36}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{53FD4A56-5E49-4553-B7EB-B058F995AFDA}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7765,7 +7765,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{405229E0-C516-488B-AD57-20A80AB5A633}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59C3738F-FA76-4931-99AD-A5D97F6D4292}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -9046,18 +9046,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{871AC839-B014-46D4-A614-C9A71EF3C31B}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{A67493BF-6FA9-4606-AF8C-7F3EE311B98F}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{3BE078D3-4653-4EAB-8C6A-4B56311D13E0}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{50C0B55A-0854-4CA8-89DB-1237EC9666F8}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{EAB55BE4-5780-48FE-ACA0-C9FBCC8F5B06}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{53AA906E-705C-4171-9036-0A8CD9132FB4}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{739246F6-3A06-46F6-9A5D-AFDFBA627D2D}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{6D2CB5EB-DA89-4EA8-B693-06F4BF35822D}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{E9B4F83C-9577-496B-B29F-E7B1CBC7EE85}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{AD3A0287-4253-4E7D-AD80-0A5CD0B8A841}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{2A244728-70BE-46F0-94A9-F9C80FC40BDC}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{68AA0624-F08C-4650-9245-F0E883B407ED}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{DD1FD0CD-40C2-4F0B-8430-BCF4B0D9F09D}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{0D5FDB88-6C3E-49D6-80FA-E1B093E6B340}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{76AC7FA9-DA38-4739-9E1F-B0E8C578BA7B}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{014B0B04-7375-4827-95A9-FF9F4F3DC36F}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{9DF82C08-3170-40A5-BE7B-E4881B3E3CC9}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{1CF673B2-23CE-47A2-A135-22B3A74B1219}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{39442800-371F-4A2E-B08D-3DB7EB08A678}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{23E9EE9A-C66B-4B10-9F08-8062397B0387}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{61816B35-ACAC-45D2-9405-06C9644CB3DE}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{5668B6F0-83E3-48E9-82ED-9F89D2AA54A4}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{56FF9DEB-318D-49B1-B350-94A1497892A0}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{47817668-5F81-49AC-B8F4-B6D6E9387B9C}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -9070,7 +9070,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{949FAFA1-F1DF-4726-A923-AA2611E93303}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C75B15C-7B6F-4A00-B78F-5835A5171D3D}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -10351,18 +10351,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{413D1FDB-61F9-4BCE-A87A-078851DEA51E}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{C13DA3FE-86A9-4DBE-8EF2-633C82F3B77D}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{735597F3-7F0A-4D9F-9A80-9ECB5D0DE0FC}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{9F82E1F6-FE8D-4859-A9D9-7E5F1676FF0F}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{39344D06-9A02-455D-BA5F-E171331F2C0A}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{811976E9-E193-4089-B80F-9EF1487BF7DC}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{2B71F0D8-607A-48CF-A732-5F8CBF31CAE6}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{1DD9EAF7-0528-453F-8778-F11B36E0DB41}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{BFC431B2-0624-40B6-B898-348BB160BF29}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{C2F7CE62-2258-414C-9A43-372245DBB91B}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{F77E6049-15EE-41D3-91D8-A294C53F153D}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{60B35EDE-9DA4-4895-BC6A-7098FABFC76A}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{A915A26C-A1C3-49DE-A8C1-959B9F1C039D}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{6ECEAF8B-19B9-452F-B902-69AC50426E36}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{0EC0A189-1039-488B-9EF6-90EB16655368}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{4A22E5CF-E09F-41DF-A3C5-9F1F1EF3C232}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{3AB28AA4-8B49-4093-8706-0C77D459EF27}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{1960DF09-92E1-45E4-9C59-EB0C88D94725}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{13239342-1FDC-4003-AD86-4B9C2E2022C1}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{E4ED2A17-244A-4B03-AA13-9CBBC9EF12CA}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{C0AAA0AF-2778-4B6B-A153-B7897C6CD213}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{24BA1A9D-F04D-4D57-A3E9-E8153A331489}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{8CC2787B-8A12-4029-A0EC-94C23DE69FE1}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{8FA0382F-48B6-4C56-BC9D-F2C900F4A5FE}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -10375,7 +10375,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C46671F4-1C9E-4C91-A2E7-D26B9E09DC6A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B8ABB4A-B9B8-4842-B854-7875E7640DD5}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -11656,18 +11656,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{2E4266F6-F128-4613-A125-2611A755A2BF}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{9275766D-D331-4887-A622-0A49C246F9F7}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{D8F2257F-C720-41C5-B751-3262B7FE21F8}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{1EE2956C-CECB-447E-9D7B-9126018726B7}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{91AD114A-4CD0-482E-9943-15E7D70F7A09}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{5BDCC6EA-D6B7-44A7-B89C-C68E556BC831}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{86EA9A23-9468-463B-8DB6-49960F3BB84A}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{79C1830A-2134-494E-9D98-4641A76F6AE3}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{BC6F717E-09FF-423E-949B-7D7E22C04475}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{13C06295-011A-4D8F-BEFE-3FC4C491727E}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{A6CAEB7A-E181-43C4-AE7C-94E967F08D8B}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{8A555910-F350-4BB9-8647-8B6F2E32BE8E}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{A691DA0C-C8C4-4832-9BDB-2F0579D64E56}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{AF7AA1B5-6614-4ACB-900C-AE6DB41E6781}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{22BA206D-69FE-42ED-8704-7C2AD6850852}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{DA4794C7-965A-4DEF-B4F8-202F25FD5FC5}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{4CB54423-22C0-4CAA-9BDB-5BF18837C1D4}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{B05BC34B-566E-4602-A9E9-E2E32B08D227}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{DB5484C6-8237-4A33-B7A6-1941A42974FB}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{16A7049F-A342-4A11-8755-2D7977B43682}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{8AAD3CD6-FD09-46DA-BA5F-80DAD5A0752D}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{C8AC64C7-59FA-4498-98C3-D1EE511A304A}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{E2A6215D-4451-40A6-B4BF-28071FC316A4}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{DD69F909-D59F-4671-825C-2B67A123CFE9}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11680,7 +11680,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31CBBE28-895F-466A-89A6-DD2BE259FBCF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D21AD3E-BD78-44CA-AE52-B9C53E77F72F}">
   <dimension ref="B2:F100"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -12953,18 +12953,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{EC766930-F9C2-4471-A180-4F6B9B7896C7}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{E26B7C2E-DED6-49BE-8070-4A1034EE1B07}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{58983C57-21DB-4B48-B332-5B52A12B6610}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{66F11A83-5CDC-496A-B170-14D4B6F280B5}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{DA120C7D-7718-4A96-8821-B17FC29A3644}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{72F45D56-9454-422A-818B-5F493BCB3E0C}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{E288A28A-D87F-4EA2-9332-49D6FA764C29}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{B2023B31-AACE-4E66-9FE1-1785798E16A1}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{154732AC-BE09-402E-A8E4-9BF33AD19B03}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{B813046C-6713-4791-BEDD-834C9F293063}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{8157E894-C2CD-44AF-A172-EC0B17D4D247}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{51EBA005-1C75-41EF-9CFA-143A0FF96DB9}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{7EDF2593-DACD-427F-BAAC-6E5493642265}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{E7102E99-148A-4D33-9EE0-1485CB758768}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{4F18E16B-A96C-44BC-A2D0-2A9C01CA87B8}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{449B88E2-B37E-4219-8740-7F1311449994}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{9ED5D687-2FEA-4624-874D-AEDE6A37F204}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{C447DA53-9E08-4039-8BE9-259CEE994332}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{C155C528-70A3-4C35-AE60-19BC2A592C29}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{CF7D5486-8D83-4CF6-894E-27B6B2FBA3CF}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{D42CEA22-3EA8-4297-81BF-0C59FEEDD8C4}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{FC6BF1FD-79D0-46B5-9E94-5E966DCDA026}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{F35B59B4-DB4C-4F62-866C-91CB22B1E4EE}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{ABC8BB5E-06EF-4ED1-9096-09AD361408AC}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -12977,7 +12977,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9652E359-EF01-4882-A9CA-4C4D575C937B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3449A44-66FE-44DB-A676-4FECAAD2494A}">
   <sheetPr codeName="Sayfa5"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -14251,18 +14251,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{B034D2F4-7069-4D0C-A68C-0BE76CD95F8E}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{F23F5856-1C46-42D0-B8C6-C6584D39A108}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{8050F9FD-9BE9-42A4-B5B5-941D91DC690A}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{0994FED8-92F9-4A24-A4FC-E8AFD51E22CA}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{63AFB9CB-01B4-4D07-994F-D7790D7A2879}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{A08B4987-93C9-4F13-931F-0BE85532F230}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{F6F3D365-D6EF-4A2E-A520-2F77A8B8A9A1}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{4B01AE42-BF7A-4CD6-93CA-74146E676377}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{44288D8A-500A-4E39-95A1-BBFE869770ED}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{176B64F7-B838-4FD0-A36D-CB50368DE50D}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{35CE3864-4829-440A-B9DE-856C7B2F31D5}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{ADC3799E-692A-4580-A888-94B0C38D3CCE}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{328E6946-B89E-441E-9535-5D0E430A3375}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{C6AB110C-D740-4737-A8FB-799FAC4075DE}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{8FB637C5-153B-4AFE-A93C-1AE86937D8BF}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{F5FD786A-0308-443D-9512-56D931D4B95B}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{889AD4B3-C965-468D-929F-A56EBF2C8CE5}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{C954A35D-2A5D-4689-BDB4-0FC7C87E3431}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{0CCB6EC8-C28E-4B51-B82A-8C930B22CCF3}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{9F9E5D92-55DA-4DC3-9C8A-D09BAD24A997}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{491BAE13-7F5E-42B7-990C-1973ADDC53F6}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{8A8953C2-5CDD-469E-ADBE-8E0F46548F32}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{93F11023-0282-43C3-8CBF-25EECE009FA8}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{91CF1A73-B6B1-436F-AA48-9CAF8FDFF19A}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -14275,7 +14275,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{502BB68B-C5B1-46C1-9B6C-190C86405E3E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97FD1475-3B15-4F43-B1D5-5E2D0B591448}">
   <sheetPr codeName="Sayfa1"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -15549,18 +15549,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{2DD2E3EB-EE51-4D0F-8A7B-94418FBEC5A0}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{4A993F0C-D71E-48DB-9C92-8977A6B79867}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{01AD0AAE-E84B-4F08-A363-3FE51C0AFBA4}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{CA1D6274-64B0-44AF-AE84-8E4B5CDB7BE4}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{5D5B541C-F67A-4DC5-9C60-63ED854B30FD}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{59080996-5D49-4119-9E32-83B1B5673621}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{EB01C62B-292B-46B3-8799-9B6DBCD24E17}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{BDC956C1-F144-4799-BB4E-51860AFFAEA1}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{86AD1558-342F-4B95-9214-106DB3273F42}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{78D720F4-99F1-4826-B4BB-992FE687964B}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{502C60B4-3F59-4730-AFB3-B65827FA5522}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{64FF73CE-5F69-4649-B17C-F6CCBD1F1C54}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{F7766EFF-1783-4E32-BAFE-BCFA8E3E7528}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{9F97050F-DC8B-4FF9-A2D3-BC03355D2E68}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{56F112C9-22FC-4CAE-B0C5-14478A1486C8}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{77D25543-5746-4671-B90D-1B2CAEB9CBFC}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{2AA2E73A-84E5-4D2A-A032-DC93C9B374B8}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{210069B7-C36C-4418-AE12-CB34D960FB3B}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{34875AD4-939F-46AE-882D-CB284511AFC4}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{D9765C6F-ABF1-48F7-914A-F1BCF54DE50F}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{19C7E1EA-D6E4-43F9-BCC6-6DA785A852AF}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{420CFB71-BCD9-45B0-908E-85A757932F1E}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{ED03CF5D-D78C-45AE-820E-285E2F6028E9}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{56DC4DD7-854D-42A0-ABC2-F2C923CEE90E}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -15573,7 +15573,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E29CC62D-C6C7-4535-A4BD-0C465BBE726C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD9E408A-D1B1-40D8-ABDF-E79055729688}">
   <sheetPr codeName="Sayfa2"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -16839,18 +16839,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{4C579013-BAAF-44AE-90D9-ACB06E14F99D}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{C3A5A793-228D-48FA-8345-57D27F5C3461}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{33522CBC-4EEE-4B8F-93ED-2F9D1E12F722}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{78057BC6-4060-41CC-83F0-55E04ED0929A}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{E18289FE-51C9-441C-BF67-682BD14C70F7}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{AB7A0AB0-A5E9-47FF-9270-27274655D795}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{F5D39088-6785-439A-B597-593981A788C6}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{7540F8FA-A6AB-4305-BA33-0A5FC5CB39EB}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{1AF11921-8220-4EF9-B109-4CE4C139398A}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{0B8D5750-671B-47CE-B180-AAB50DE6FEF1}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{5EB4A2BC-A469-48EE-AA41-BFD4EE63B65F}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{EA1A9FD6-532B-4102-BF0B-B2FD1FB79894}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{F333FE7F-9C5B-496C-B7FB-7C603AB6C9D2}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{00E578C1-AB41-4BE7-982B-1B9F77153F0E}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{BEC0DEC2-6178-4834-B3C1-1071191FBE80}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{3FE91FDC-58AB-4485-B355-15FEFAF5B0FB}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{27A5F3C2-142E-4142-9045-EDF90880764C}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{AD1D7036-7C8E-44AE-8757-63B017CD3085}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{2EA5EF06-9607-41B0-9FD3-2560F17F874B}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{68D33E89-33A3-4D3F-B746-BD13224ACA42}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{0FC094F4-FBC2-4673-B5DD-ED007D9A8243}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{C5DE05B6-34DC-4EAC-82DE-C5EAF6671E13}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{275BF525-F718-42AA-B15C-310EFB5C0E79}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{38D49AB2-949F-4EC9-A18D-36F37D928590}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
